--- a/003.개발자/000.인텔리제이 세팅/인텔리제이 세팅.xlsx
+++ b/003.개발자/000.인텔리제이 세팅/인텔리제이 세팅.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jooladen\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jooladen\Desktop\study_source\003.개발자\000.인텔리제이 세팅\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A01698-D563-45FF-A8D5-0CF178D5CF7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B183197F-80B9-4340-95FD-E30ECC93A8A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{1F894590-B857-45B9-905A-50114E224A80}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1F894590-B857-45B9-905A-50114E224A80}"/>
   </bookViews>
   <sheets>
     <sheet name="utf-8" sheetId="7" r:id="rId1"/>
     <sheet name="자동임포트" sheetId="4" r:id="rId2"/>
     <sheet name="build proj automatically" sheetId="5" r:id="rId3"/>
-    <sheet name="keymap" sheetId="1" r:id="rId4"/>
-    <sheet name="font size" sheetId="2" r:id="rId5"/>
-    <sheet name="font size mouse" sheetId="3" r:id="rId6"/>
-    <sheet name="Spring Boot DevTools" sheetId="6" r:id="rId7"/>
+    <sheet name="Spring Boot DevTools" sheetId="6" r:id="rId4"/>
+    <sheet name="keymap" sheetId="1" r:id="rId5"/>
+    <sheet name="font size" sheetId="2" r:id="rId6"/>
+    <sheet name="font size mouse" sheetId="3" r:id="rId7"/>
     <sheet name="Indent" sheetId="8" r:id="rId8"/>
     <sheet name="SHITF 2번 클릭" sheetId="9" r:id="rId9"/>
     <sheet name="VM Options" sheetId="10" r:id="rId10"/>
@@ -353,8 +353,8 @@
       <xdr:row>37</xdr:row>
       <xdr:rowOff>152430</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="4" name="잉크 3">
@@ -373,7 +373,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="4" name="잉크 3">
@@ -418,8 +418,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>114180</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="5" name="잉크 4">
@@ -438,7 +438,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="5" name="잉크 4">
@@ -796,22 +796,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>426343</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>203169</xdr:rowOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>684349</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>37084</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64A3C8C9-C030-FF95-7D90-C4DD54269AD0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1760F09D-5594-F5E3-0446-C14960FCF3D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -827,6 +827,121 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
+          <a:off x="47625" y="295275"/>
+          <a:ext cx="11609524" cy="8123809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="직사각형 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFE5084E-E72F-4D97-9BBD-C96EA309F0AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3724275" y="6076950"/>
+          <a:ext cx="6153150" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>426343</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>203169</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64A3C8C9-C030-FF95-7D90-C4DD54269AD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
           <a:off x="0" y="426720"/>
           <a:ext cx="18257143" cy="5323809"/>
         </a:xfrm>
@@ -894,8 +1009,8 @@
       <xdr:row>37</xdr:row>
       <xdr:rowOff>95280</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="5" name="잉크 4">
@@ -914,7 +1029,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="5" name="잉크 4">
@@ -1059,7 +1174,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1108,7 +1223,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1182,121 +1297,6 @@
         <a:xfrm>
           <a:off x="2962275" y="1057274"/>
           <a:ext cx="4343400" cy="942975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>684349</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>37084</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1760F09D-5594-F5E3-0446-C14960FCF3D0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="47625" y="295275"/>
-          <a:ext cx="11609524" cy="8123809"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="직사각형 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFE5084E-E72F-4D97-9BBD-C96EA309F0AC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3724275" y="6076950"/>
-          <a:ext cx="6153150" cy="1047750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1669,8 +1669,8 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>10290</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="8" name="잉크 7">
@@ -1689,7 +1689,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="8" name="잉크 7">
@@ -1734,8 +1734,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>114390</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="9" name="잉크 8">
@@ -1754,7 +1754,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="9" name="잉크 8">
@@ -2341,7 +2341,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
@@ -2428,7 +2428,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2441,6 +2441,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD980493-FE44-411B-9B69-0D4DD3C027D9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C69879-BE60-455C-8236-8C6CF7EE2A1A}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2462,7 +2482,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAEC243B-95CC-471B-8095-49EC688D5EDA}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2476,7 +2496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C860AAD-BC48-4750-8B2E-7B0866744796}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2484,26 +2504,6 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD980493-FE44-411B-9B69-0D4DD3C027D9}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
